--- a/URL data.xlsx
+++ b/URL data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinay.Patel_old\git\iRequestAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pooja.wali\git\iRequestAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F521A1-98BC-4040-A586-2FE8E4704971}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{0602FA2B-F1AD-48DE-A70E-166A23FD4330}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,13 +29,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t xml:space="preserve">http://dewdropsqc.zycus.net/irequest/ </t>
+    <t>https://smtlogin.zycus.net/sso/login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,11 +391,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFE53C7-F280-41B7-A1E2-21466F021C80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,10 +411,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{9349056D-FCB8-4B8E-8D92-33A64B054796}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>